--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,15 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -64,121 +61,136 @@
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>quality</t>
@@ -187,10 +199,10 @@
     <t>coffee</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>makes</t>
@@ -199,19 +211,19 @@
     <t>little</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -575,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4108527131782946</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3838383838383838</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,69 +724,45 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>0.8985507246376812</v>
+      </c>
+      <c r="L4">
+        <v>62</v>
+      </c>
+      <c r="M4">
+        <v>62</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4">
-        <v>0.8840579710144928</v>
-      </c>
-      <c r="L4">
-        <v>61</v>
-      </c>
-      <c r="M4">
-        <v>61</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.1621621621621622</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>155</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,21 +774,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8591331269349846</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L6">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M6">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,21 +800,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,21 +826,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,21 +852,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,21 +878,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7220338983050848</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L10">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="M10">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,21 +904,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6818181818181818</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -942,12 +930,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12">
         <v>0.6619718309859155</v>
@@ -973,16 +961,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6364365971107544</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L13">
-        <v>793</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>793</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -994,21 +982,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>453</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6323529411764706</v>
+        <v>0.6412520064205457</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>799</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>799</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1020,21 +1008,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6285714285714286</v>
+        <v>0.609375</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1046,21 +1034,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6027397260273972</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1072,47 +1060,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>26</v>
-      </c>
-      <c r="K17">
-        <v>0.5964912280701754</v>
-      </c>
-      <c r="L17">
-        <v>34</v>
-      </c>
-      <c r="M17">
-        <v>34</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18">
-        <v>0.59375</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1124,21 +1112,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5846153846153846</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1150,21 +1138,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5811965811965812</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L20">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1176,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5657142857142857</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L21">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="M21">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1202,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5576923076923077</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L22">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1228,21 +1216,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5389221556886228</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L23">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1254,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5131578947368421</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1280,21 +1268,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4819277108433735</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L25">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1306,21 +1294,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4819277108433735</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1332,21 +1320,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4761904761904762</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1358,21 +1346,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28">
-        <v>0.47</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1384,21 +1372,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4444444444444444</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1410,21 +1398,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4360902255639098</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1436,21 +1424,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>0.3852140077821012</v>
+        <v>0.44</v>
       </c>
       <c r="L31">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1462,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>158</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3848039215686275</v>
+        <v>0.3995098039215687</v>
       </c>
       <c r="L32">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M32">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1488,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3643835616438356</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L33">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M33">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1514,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3525179856115108</v>
+        <v>0.3307392996108949</v>
       </c>
       <c r="L34">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="M34">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1540,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>90</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>0.3443708609271523</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L35">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1566,21 +1554,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3333333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1592,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3110047846889952</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L37">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1618,47 +1606,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2755651237890204</v>
+        <v>0.3</v>
       </c>
       <c r="L38">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>673</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2706766917293233</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1670,21 +1658,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>97</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>0.2263427109974425</v>
+        <v>0.2680301399354144</v>
       </c>
       <c r="L40">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="M40">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1696,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>605</v>
+        <v>680</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2251655629139073</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L41">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1722,47 +1710,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>585</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2147651006711409</v>
+        <v>0.234314980793854</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>117</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1974921630094044</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L43">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="M43">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1774,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>256</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1890243902439024</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1800,47 +1788,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1657608695652174</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L45">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M45">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>307</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>0.162291169451074</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L46">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1852,47 +1840,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>351</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1545454545454545</v>
+        <v>0.2005420054200542</v>
       </c>
       <c r="L47">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M47">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1481481481481481</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L48">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1904,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>230</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1469298245614035</v>
+        <v>0.1732456140350877</v>
       </c>
       <c r="L49">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="M49">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1930,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1328413284132841</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1956,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K51">
-        <v>0.127147766323024</v>
+        <v>0.1527446300715991</v>
       </c>
       <c r="L51">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="M51">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1982,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1218487394957983</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2008,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>209</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1119221411192214</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="L53">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M53">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2034,111 +2022,241 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K54">
-        <v>0.09182209469153516</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L54">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>633</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K55">
-        <v>0.09158878504672897</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="L55">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="M55">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>972</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K56">
-        <v>0.07763401109057301</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L56">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M56">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>499</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57">
+        <v>0.09352517985611511</v>
+      </c>
+      <c r="L57">
+        <v>65</v>
+      </c>
+      <c r="M57">
+        <v>68</v>
+      </c>
+      <c r="N57">
+        <v>0.96</v>
+      </c>
+      <c r="O57">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K57">
-        <v>0.04344048653344917</v>
-      </c>
-      <c r="L57">
-        <v>50</v>
-      </c>
-      <c r="M57">
-        <v>56</v>
-      </c>
-      <c r="N57">
-        <v>0.89</v>
-      </c>
-      <c r="O57">
-        <v>0.11</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>1101</v>
+      <c r="K58">
+        <v>0.09337068160597572</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+      <c r="M58">
+        <v>101</v>
+      </c>
+      <c r="N58">
+        <v>0.99</v>
+      </c>
+      <c r="O58">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="L59">
+        <v>30</v>
+      </c>
+      <c r="M59">
+        <v>30</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60">
+        <v>0.07380073800738007</v>
+      </c>
+      <c r="L60">
+        <v>40</v>
+      </c>
+      <c r="M60">
+        <v>40</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="L61">
+        <v>33</v>
+      </c>
+      <c r="M61">
+        <v>38</v>
+      </c>
+      <c r="N61">
+        <v>0.87</v>
+      </c>
+      <c r="O61">
+        <v>0.13</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K62">
+        <v>0.05212858384013901</v>
+      </c>
+      <c r="L62">
+        <v>60</v>
+      </c>
+      <c r="M62">
+        <v>66</v>
+      </c>
+      <c r="N62">
+        <v>0.91</v>
+      </c>
+      <c r="O62">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
